--- a/FacultyData.xlsx
+++ b/FacultyData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="faculty" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="courses" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ClassroomCapacity" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,10 +18,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -47,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,61 +423,609 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">FACULTY ID </t>
+          <t>FacultyID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AreaOfResidence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lectures</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>OfficeWork</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hinjewadi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hadapsar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>m1</t>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BT Kawade Road</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>m5</t>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pashan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>s10</t>
-        </is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pashan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kothrud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Co1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FC &amp; Kothrud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Co2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hadapsar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Co3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hinjewadi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Co4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PCMC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Co5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FC &amp; Kothrud</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Swargate</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wanowrie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FC and Lloyds</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vishrant Wadi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Magarpatta</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hadapsar and Lloyds</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hadapsar</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sopan Baug</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Erandwane</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>13</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Shivajinagar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hinjewadi</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BT Kawade road</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aundh &amp; PCMC</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lloyds-Hadapsar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>hk</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kothrud</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>m1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kondhwa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FC-Kothrud-Katraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hadapsar and Lloyds</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Z6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Amonora</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Aundh-PCMC-PS</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>55</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>V5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lloyds-Hadapsar</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>48</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -478,15 +1035,252 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col width="94" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="108" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Batch Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Coding</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Logic</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Course Option</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Foundation Basic (Wednesday) (09:00 to 12:00) (OFFLINE)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Foundation SUMMER OFFLINE (Wed - 07:40 to 08:20)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Foundation Basic OFFLINE (Fri - 07:10 to 08:00)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Foundation SUMMER (Thursday - 7:55 AM to 8:25 AM) (COMBINE)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Foundation SUMMER (Thursday - 7:40 AM to 8:30 AM) (ONLINE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Foundation SUMMER (Sunday - 7:00 AM to 8:05 AM) (COMBINE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Foundation Basic (Monday - 7:10 AM to 8:25 AM) (ONLINE)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Foundation BASIC (Tuesday - 7:10 AM to 5:05 PM and Wednesday - 7:35 AM to 11:00 AM) (ONLINE)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pre FB Offline Aundh Champions (Sat 5 to 8:20 pm) - Shambhu Vihar New building (Small) - 1st floor class 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Foundation Accelerated () (OFFLINE)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A26 FC Road Synergy COC + Champions (Tue 6:00 pm to 9:20 pm Fri 6:00 pm to 9:20 pm) [GC Mid]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Foundation SUMMER () (ONLINE)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A26 Aundh Offline Champions (Wed 5:30 pm to 8:50 pm Sun 7:00 am to 10:20 am) [1st Floor classroom 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Foundation SUMMER (Tuesday - 7:00 AM to 7:15 AM) (OFFLINE)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A26 Pimple Saudagar Offline COC - 1 (Tue 5:30 pm to 8:50 pm Sat 5:30 pm to 8:50 pm) [Classroom 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Foundation Accelerated (Monday - 7:00 AM to 7:30 AM) (OFFLINE)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A26 Aundh Offline Champions (Wed 5:30 pm to 8:50 pm Sun 7:00 am to 10:20 am) [1st Floor classroom 1]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -496,14 +1290,490 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Classroom</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Seating Capacity</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Allotted Students</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Ownership</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Classroom 2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Classroom 4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classroom 5</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Rented</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classroom 6</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classroom 7</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classroom 8</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" t="n">
+        <v>79</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classroom 9</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>85</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classroom 10</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>84</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rented</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classroom 11</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>90</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classroom 12</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>90</v>
+      </c>
+      <c r="D11" t="n">
+        <v>78</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classroom 13</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classroom 14</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>80</v>
+      </c>
+      <c r="D13" t="n">
+        <v>66</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classroom 15</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>85</v>
+      </c>
+      <c r="D14" t="n">
+        <v>66</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Rented</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classroom 16</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>85</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classroom 17</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>90</v>
+      </c>
+      <c r="D16" t="n">
+        <v>67</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classroom 18</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>90</v>
+      </c>
+      <c r="D17" t="n">
+        <v>88</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classroom 8</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>78</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Owned</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Viman Nagar</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classroom 4</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>80</v>
+      </c>
+      <c r="D19" t="n">
+        <v>77</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Rented</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Camp (Lloyds)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classroom 3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Rented</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>